--- a/자회사B_FS.xlsx
+++ b/자회사B_FS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BSPL" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="947">
   <si>
     <t>1100</t>
   </si>
@@ -2707,14 +2707,125 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(지분율)</t>
+    <t>기초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>회계변경의 효과</t>
+  </si>
+  <si>
+    <t>당기순손익</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토지와 건물의 재평가이익 </t>
+  </si>
+  <si>
+    <t>토지와 건물에 대한 감가상각비의 대체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기타포괄손익측정금융자산 평가손익 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계기업 기타포괄손익에 대한 지분해당액</t>
+  </si>
+  <si>
+    <t>순확정급여부채의 재측정요소</t>
+  </si>
+  <si>
+    <t>현금흐름 위험회피</t>
+  </si>
+  <si>
+    <t>순투자에 대한 위험회피</t>
+  </si>
+  <si>
+    <t>해외사업환산손익</t>
+  </si>
+  <si>
+    <t>주식발행</t>
+  </si>
+  <si>
+    <t>주식할인발행차금</t>
+  </si>
+  <si>
+    <t>자기주식 거래</t>
+  </si>
+  <si>
+    <t>배당</t>
+  </si>
+  <si>
+    <t>연결범위 변동</t>
+  </si>
+  <si>
+    <t>지분변동차액</t>
+  </si>
+  <si>
+    <t>3100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자회사B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지분율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE110_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>자본조정</t>
   </si>
   <si>
     <t>기타포괄손익누계액</t>
+  </si>
+  <si>
+    <t>비지배지분</t>
+  </si>
+  <si>
+    <t>3200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2722,160 +2833,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>3400</t>
-  </si>
-  <si>
-    <t>기초</t>
+    <t>조정코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CE_beg</t>
+    <t>105100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회계변경의 효과</t>
-  </si>
-  <si>
-    <t>CE1</t>
+    <t>105200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>당기순손익</t>
-  </si>
-  <si>
-    <t>지배지분순이익</t>
-  </si>
-  <si>
-    <t>102000</t>
-  </si>
-  <si>
-    <t>비지배지분순이익</t>
-  </si>
-  <si>
-    <t>102100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토지와 건물의 재평가이익 </t>
-  </si>
-  <si>
-    <t>CE2</t>
+    <t>105300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>토지와 건물에 대한 감가상각비의 대체</t>
-  </si>
-  <si>
-    <t>CE3</t>
+    <t>105400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">기타포괄손익측정금융자산 평가손익 </t>
+    <t>105000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CE4</t>
+    <t>201200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관계기업 기타포괄손익에 대한 지분해당액</t>
-  </si>
-  <si>
-    <t>CE5</t>
-  </si>
-  <si>
-    <t>순확정급여부채의 재측정요소</t>
-  </si>
-  <si>
-    <t>CE6</t>
-  </si>
-  <si>
-    <t>현금흐름 위험회피</t>
-  </si>
-  <si>
-    <t>CE7</t>
-  </si>
-  <si>
-    <t>순투자에 대한 위험회피</t>
-  </si>
-  <si>
-    <t>CE8</t>
-  </si>
-  <si>
-    <t>해외사업환산손익</t>
-  </si>
-  <si>
-    <t>CE9</t>
-  </si>
-  <si>
-    <t>CE10</t>
-  </si>
-  <si>
-    <t>주식발행</t>
-  </si>
-  <si>
-    <t>CE11</t>
-  </si>
-  <si>
-    <t>주식할인발행차금</t>
-  </si>
-  <si>
-    <t>CE12</t>
-  </si>
-  <si>
-    <t>자기주식 거래</t>
-  </si>
-  <si>
-    <t>CE13</t>
-  </si>
-  <si>
-    <t>배당</t>
-  </si>
-  <si>
-    <t>CE14</t>
+    <t>CE10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>연결범위 변동</t>
-  </si>
-  <si>
-    <t>CE100</t>
+    <t>CE10_NI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지분변동차액</t>
-  </si>
-  <si>
-    <t>CE101</t>
+    <t>CE30_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
+    <t>CE40_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CE102</t>
+    <t>CE50_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기말</t>
+    <t>CE60_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CE_end</t>
+    <t>CE70_CI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비지배지분</t>
+    <t>CE80_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE90_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE100_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE120_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE130_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE140_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE150_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1000_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1010_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2933,6 +2991,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2978,7 +3042,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3007,22 +3071,31 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4875,379 +4948,450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.35546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G1" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="B2" s="13">
         <v>0.8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>888</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C5" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>889</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="C6" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="17">
+        <v>1101188547</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>890</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="18">
+        <f>ROUND(H6*0.4,)</f>
+        <v>440475419</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <f>ROUND(-G7/5,)</f>
+        <v>-88095084</v>
+      </c>
+      <c r="H8" s="11">
+        <f>-G8</f>
+        <v>88095084</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>937</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>914</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>940</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="C17" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>900</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C18" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="C19" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C20" s="16" t="s">
+        <v>944</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="C21" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C22" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="C23" s="16" t="s">
         <v>908</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5255,13 +5399,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.92578125" customWidth="1"/>
-    <col min="2" max="2" width="40.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.0703125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/자회사B_FS.xlsx
+++ b/자회사B_FS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="946">
   <si>
     <t>1100</t>
   </si>
@@ -2764,10 +2764,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>201200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2788,144 +2784,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>3500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE110_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본조정</t>
+  </si>
+  <si>
+    <t>기타포괄손익누계액</t>
+  </si>
+  <si>
+    <t>비지배지분</t>
+  </si>
+  <si>
+    <t>3300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE10_NI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE30_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE40_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE50_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE60_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE70_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE80_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE90_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE100_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE120_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE130_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE140_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE150_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1000_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1010_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201100</t>
+  </si>
+  <si>
+    <t>105100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>계정코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beginning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE110_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자본조정</t>
-  </si>
-  <si>
-    <t>기타포괄손익누계액</t>
-  </si>
-  <si>
-    <t>비지배지분</t>
-  </si>
-  <si>
     <t>3200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조정코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE10_NI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE30_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE40_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE50_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE60_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE70_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE80_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE90_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE100_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE120_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE130_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE140_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE150_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE1000_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE1010_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE9999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4950,7 +4945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4967,85 +4964,85 @@
         <v>219</v>
       </c>
       <c r="F1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H1" t="s">
         <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B2" s="13">
         <v>0.8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>904</v>
+        <v>939</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>920</v>
+        <v>942</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>912</v>
+        <v>943</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>905</v>
+        <v>938</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>887</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5056,13 +5053,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>888</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5073,13 +5070,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>889</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5092,13 +5089,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>890</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -5112,13 +5109,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>891</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -5135,13 +5132,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>892</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -5152,13 +5149,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>893</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -5169,13 +5166,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>894</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -5186,13 +5183,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>895</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -5203,13 +5200,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>896</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -5220,13 +5217,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>897</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -5237,13 +5234,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>342</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -5254,13 +5251,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>898</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -5271,13 +5268,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>899</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -5288,13 +5285,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>900</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -5305,13 +5302,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>901</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -5322,13 +5319,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>902</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -5339,13 +5336,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>903</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -5356,13 +5353,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -5373,13 +5370,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>907</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>908</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
